--- a/DM HOTELES.xlsx
+++ b/DM HOTELES.xlsx
@@ -8849,6 +8849,1206 @@
         <v>4.392425</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B170" t="n">
+        <v>70.567</v>
+      </c>
+      <c r="C170" t="n">
+        <v>13.4881</v>
+      </c>
+      <c r="D170" t="n">
+        <v>18.3176</v>
+      </c>
+      <c r="E170" t="n">
+        <v>949</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="H170" t="n">
+        <v>152</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>5.144997</v>
+      </c>
+      <c r="L170" t="n">
+        <v>7.129641</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.5861031</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.8548928</v>
+      </c>
+      <c r="O170" t="n">
+        <v>154.8692</v>
+      </c>
+      <c r="P170" t="n">
+        <v>6.066658</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>45715.0416666667</v>
+      </c>
+      <c r="B171" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>22.6839</v>
+      </c>
+      <c r="D171" t="n">
+        <v>33.179</v>
+      </c>
+      <c r="E171" t="n">
+        <v>949</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="H171" t="n">
+        <v>231</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3.969613</v>
+      </c>
+      <c r="L171" t="n">
+        <v>9.891109</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.651476</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1.642325</v>
+      </c>
+      <c r="O171" t="n">
+        <v>163.9307</v>
+      </c>
+      <c r="P171" t="n">
+        <v>2.951594</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>45715.0833333333</v>
+      </c>
+      <c r="B172" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>29.5661</v>
+      </c>
+      <c r="D172" t="n">
+        <v>43.5257</v>
+      </c>
+      <c r="E172" t="n">
+        <v>949</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>206</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4.0439</v>
+      </c>
+      <c r="L172" t="n">
+        <v>10.73583</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.9449465</v>
+      </c>
+      <c r="N172" t="n">
+        <v>8.065516</v>
+      </c>
+      <c r="O172" t="n">
+        <v>168.7366</v>
+      </c>
+      <c r="P172" t="n">
+        <v>1.83866</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>45715.125</v>
+      </c>
+      <c r="B173" t="n">
+        <v>72.761</v>
+      </c>
+      <c r="C173" t="n">
+        <v>20.3763</v>
+      </c>
+      <c r="D173" t="n">
+        <v>30.3854</v>
+      </c>
+      <c r="E173" t="n">
+        <v>948</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="H173" t="n">
+        <v>224</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1.823128</v>
+      </c>
+      <c r="L173" t="n">
+        <v>7.7143</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.8826798</v>
+      </c>
+      <c r="N173" t="n">
+        <v>7.9896</v>
+      </c>
+      <c r="O173" t="n">
+        <v>100.9925</v>
+      </c>
+      <c r="P173" t="n">
+        <v>4.401408</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>45715.1666666667</v>
+      </c>
+      <c r="B174" t="n">
+        <v>72.856</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21.5025</v>
+      </c>
+      <c r="D174" t="n">
+        <v>26.8993</v>
+      </c>
+      <c r="E174" t="n">
+        <v>948</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="H174" t="n">
+        <v>201</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1.321611</v>
+      </c>
+      <c r="L174" t="n">
+        <v>7.5026</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.029414</v>
+      </c>
+      <c r="N174" t="n">
+        <v>7.422349</v>
+      </c>
+      <c r="O174" t="n">
+        <v>69.76375</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5.072425</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>45715.2083333333</v>
+      </c>
+      <c r="B175" t="n">
+        <v>72.232</v>
+      </c>
+      <c r="C175" t="n">
+        <v>20.6697</v>
+      </c>
+      <c r="D175" t="n">
+        <v>25.8283</v>
+      </c>
+      <c r="E175" t="n">
+        <v>948</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="H175" t="n">
+        <v>162</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.625953</v>
+      </c>
+      <c r="L175" t="n">
+        <v>9.841242</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.876779</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4.529725</v>
+      </c>
+      <c r="O175" t="n">
+        <v>95.77841</v>
+      </c>
+      <c r="P175" t="n">
+        <v>3.154777</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>45715.25</v>
+      </c>
+      <c r="B176" t="n">
+        <v>72.203</v>
+      </c>
+      <c r="C176" t="n">
+        <v>24.8415</v>
+      </c>
+      <c r="D176" t="n">
+        <v>36.9655</v>
+      </c>
+      <c r="E176" t="n">
+        <v>949</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="H176" t="n">
+        <v>190</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>4.051306</v>
+      </c>
+      <c r="L176" t="n">
+        <v>12.15707</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.9526895</v>
+      </c>
+      <c r="N176" t="n">
+        <v>6.882341</v>
+      </c>
+      <c r="O176" t="n">
+        <v>136.5642</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0.9529424</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>45715.2916666667</v>
+      </c>
+      <c r="B177" t="n">
+        <v>69.383</v>
+      </c>
+      <c r="C177" t="n">
+        <v>26.0465</v>
+      </c>
+      <c r="D177" t="n">
+        <v>44.254</v>
+      </c>
+      <c r="E177" t="n">
+        <v>949</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="H177" t="n">
+        <v>210</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="K177" t="n">
+        <v>16.742</v>
+      </c>
+      <c r="L177" t="n">
+        <v>15.02469</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.8445022</v>
+      </c>
+      <c r="N177" t="n">
+        <v>6.843987</v>
+      </c>
+      <c r="O177" t="n">
+        <v>193.6625</v>
+      </c>
+      <c r="P177" t="n">
+        <v>2.085941</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>45715.3333333333</v>
+      </c>
+      <c r="B178" t="n">
+        <v>64.726</v>
+      </c>
+      <c r="C178" t="n">
+        <v>37.1065</v>
+      </c>
+      <c r="D178" t="n">
+        <v>72.0935</v>
+      </c>
+      <c r="E178" t="n">
+        <v>950</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="H178" t="n">
+        <v>218</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K178" t="n">
+        <v>43.79425</v>
+      </c>
+      <c r="L178" t="n">
+        <v>17.55244</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.479928</v>
+      </c>
+      <c r="N178" t="n">
+        <v>7.689353</v>
+      </c>
+      <c r="O178" t="n">
+        <v>406.5675</v>
+      </c>
+      <c r="P178" t="n">
+        <v>3.224891</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>45715.375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>60.787</v>
+      </c>
+      <c r="C179" t="n">
+        <v>31.6341</v>
+      </c>
+      <c r="D179" t="n">
+        <v>61.2258</v>
+      </c>
+      <c r="E179" t="n">
+        <v>950</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="H179" t="n">
+        <v>179</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.397</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="K179" t="n">
+        <v>21.36764</v>
+      </c>
+      <c r="L179" t="n">
+        <v>13.86712</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1.189072</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1.775946</v>
+      </c>
+      <c r="O179" t="n">
+        <v>249.7867</v>
+      </c>
+      <c r="P179" t="n">
+        <v>7.491908</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>45715.4166666667</v>
+      </c>
+      <c r="B180" t="n">
+        <v>55.036</v>
+      </c>
+      <c r="C180" t="n">
+        <v>21.5532</v>
+      </c>
+      <c r="D180" t="n">
+        <v>36.351</v>
+      </c>
+      <c r="E180" t="n">
+        <v>950</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H180" t="n">
+        <v>184</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K180" t="n">
+        <v>17.80478</v>
+      </c>
+      <c r="L180" t="n">
+        <v>9.542338</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1.246757</v>
+      </c>
+      <c r="N180" t="n">
+        <v>2.043278</v>
+      </c>
+      <c r="O180" t="n">
+        <v>173.9089</v>
+      </c>
+      <c r="P180" t="n">
+        <v>14.92622</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>45715.4583333333</v>
+      </c>
+      <c r="B181" t="n">
+        <v>47.873</v>
+      </c>
+      <c r="C181" t="n">
+        <v>26.022</v>
+      </c>
+      <c r="D181" t="n">
+        <v>44.2053</v>
+      </c>
+      <c r="E181" t="n">
+        <v>950</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="H181" t="n">
+        <v>350</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K181" t="n">
+        <v>18.77948</v>
+      </c>
+      <c r="L181" t="n">
+        <v>13.1786</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1.35233</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.7820149</v>
+      </c>
+      <c r="O181" t="n">
+        <v>209.7663</v>
+      </c>
+      <c r="P181" t="n">
+        <v>19.428</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>45715.5</v>
+      </c>
+      <c r="B182" t="n">
+        <v>44.496</v>
+      </c>
+      <c r="C182" t="n">
+        <v>21.1109</v>
+      </c>
+      <c r="D182" t="n">
+        <v>40.3311</v>
+      </c>
+      <c r="E182" t="n">
+        <v>949</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="H182" t="n">
+        <v>160</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="K182" t="n">
+        <v>17.18503</v>
+      </c>
+      <c r="L182" t="n">
+        <v>12.88396</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.559158</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.7646459</v>
+      </c>
+      <c r="O182" t="n">
+        <v>228.6977</v>
+      </c>
+      <c r="P182" t="n">
+        <v>19.86675</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>45715.5416666667</v>
+      </c>
+      <c r="B183" t="n">
+        <v>45.583</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.90985</v>
+      </c>
+      <c r="D183" t="n">
+        <v>44.9885</v>
+      </c>
+      <c r="E183" t="n">
+        <v>949</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="H183" t="n">
+        <v>176</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="K183" t="n">
+        <v>13.34375</v>
+      </c>
+      <c r="L183" t="n">
+        <v>7.567909</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1.342773</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.47245</v>
+      </c>
+      <c r="O183" t="n">
+        <v>195.1093</v>
+      </c>
+      <c r="P183" t="n">
+        <v>21.42042</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>45715.5833333333</v>
+      </c>
+      <c r="B184" t="n">
+        <v>48.762</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.5646</v>
+      </c>
+      <c r="D184" t="n">
+        <v>43.3802</v>
+      </c>
+      <c r="E184" t="n">
+        <v>948</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="H184" t="n">
+        <v>172</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="K184" t="n">
+        <v>10.8549</v>
+      </c>
+      <c r="L184" t="n">
+        <v>7.179167</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.8299924</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.4620635</v>
+      </c>
+      <c r="O184" t="n">
+        <v>155.5392</v>
+      </c>
+      <c r="P184" t="n">
+        <v>16.52033</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>45715.625</v>
+      </c>
+      <c r="B185" t="n">
+        <v>51.219</v>
+      </c>
+      <c r="C185" t="n">
+        <v>17.3435</v>
+      </c>
+      <c r="D185" t="n">
+        <v>38.5164</v>
+      </c>
+      <c r="E185" t="n">
+        <v>948</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="H185" t="n">
+        <v>186</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="K185" t="n">
+        <v>8.350117</v>
+      </c>
+      <c r="L185" t="n">
+        <v>5.614955</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.9283193</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.2734142</v>
+      </c>
+      <c r="O185" t="n">
+        <v>105.1352</v>
+      </c>
+      <c r="P185" t="n">
+        <v>15.33955</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>45715.6666666667</v>
+      </c>
+      <c r="B186" t="n">
+        <v>54.631</v>
+      </c>
+      <c r="C186" t="n">
+        <v>18.2158</v>
+      </c>
+      <c r="D186" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="E186" t="n">
+        <v>948</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="H186" t="n">
+        <v>186</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2.469</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="K186" t="n">
+        <v>11.4666</v>
+      </c>
+      <c r="L186" t="n">
+        <v>7.766795</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.7454016</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.4002458</v>
+      </c>
+      <c r="O186" t="n">
+        <v>152.8438</v>
+      </c>
+      <c r="P186" t="n">
+        <v>13.43006</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>45715.7083333333</v>
+      </c>
+      <c r="B187" t="n">
+        <v>56.403</v>
+      </c>
+      <c r="C187" t="n">
+        <v>19.3192</v>
+      </c>
+      <c r="D187" t="n">
+        <v>31.6436</v>
+      </c>
+      <c r="E187" t="n">
+        <v>948</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H187" t="n">
+        <v>178</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="K187" t="n">
+        <v>15.68515</v>
+      </c>
+      <c r="L187" t="n">
+        <v>9.253328</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.7861618</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.7378778</v>
+      </c>
+      <c r="O187" t="n">
+        <v>179.8353</v>
+      </c>
+      <c r="P187" t="n">
+        <v>11.56931</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>45715.75</v>
+      </c>
+      <c r="B188" t="n">
+        <v>60.082</v>
+      </c>
+      <c r="C188" t="n">
+        <v>29.2835</v>
+      </c>
+      <c r="D188" t="n">
+        <v>40.9899</v>
+      </c>
+      <c r="E188" t="n">
+        <v>948</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="H188" t="n">
+        <v>212</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K188" t="n">
+        <v>12.87643</v>
+      </c>
+      <c r="L188" t="n">
+        <v>9.636942</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1.010718</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1.022425</v>
+      </c>
+      <c r="O188" t="n">
+        <v>184.3955</v>
+      </c>
+      <c r="P188" t="n">
+        <v>9.682275</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>45715.7916666667</v>
+      </c>
+      <c r="B189" t="n">
+        <v>60.979</v>
+      </c>
+      <c r="C189" t="n">
+        <v>18.1003</v>
+      </c>
+      <c r="D189" t="n">
+        <v>28.1611</v>
+      </c>
+      <c r="E189" t="n">
+        <v>949</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="H189" t="n">
+        <v>198</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>10.52913</v>
+      </c>
+      <c r="L189" t="n">
+        <v>8.870042</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.9003667</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.5885332</v>
+      </c>
+      <c r="O189" t="n">
+        <v>169.0954</v>
+      </c>
+      <c r="P189" t="n">
+        <v>7.840158</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>45715.8333333333</v>
+      </c>
+      <c r="B190" t="n">
+        <v>61.171</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.1475</v>
+      </c>
+      <c r="D190" t="n">
+        <v>31.1364</v>
+      </c>
+      <c r="E190" t="n">
+        <v>950</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="H190" t="n">
+        <v>170</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>11.73944</v>
+      </c>
+      <c r="L190" t="n">
+        <v>10.01032</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.6559323</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.3518505</v>
+      </c>
+      <c r="O190" t="n">
+        <v>217.6704</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5.980441</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>45715.875</v>
+      </c>
+      <c r="B191" t="n">
+        <v>61.682</v>
+      </c>
+      <c r="C191" t="n">
+        <v>23.9133</v>
+      </c>
+      <c r="D191" t="n">
+        <v>31.406</v>
+      </c>
+      <c r="E191" t="n">
+        <v>950</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="H191" t="n">
+        <v>206</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>8.294971</v>
+      </c>
+      <c r="L191" t="n">
+        <v>9.133733</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.8424593</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1.663933</v>
+      </c>
+      <c r="O191" t="n">
+        <v>156.7092</v>
+      </c>
+      <c r="P191" t="n">
+        <v>7.100775</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>45715.9166666667</v>
+      </c>
+      <c r="B192" t="n">
+        <v>63.013</v>
+      </c>
+      <c r="C192" t="n">
+        <v>20.4398</v>
+      </c>
+      <c r="D192" t="n">
+        <v>32.6793</v>
+      </c>
+      <c r="E192" t="n">
+        <v>950</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="H192" t="n">
+        <v>181</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>10.70417</v>
+      </c>
+      <c r="L192" t="n">
+        <v>11.29086</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.8481933</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1.180977</v>
+      </c>
+      <c r="O192" t="n">
+        <v>228.1526</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5.041591</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>45715.9583333333</v>
+      </c>
+      <c r="B193" t="n">
+        <v>63.727</v>
+      </c>
+      <c r="C193" t="n">
+        <v>15.9526</v>
+      </c>
+      <c r="D193" t="n">
+        <v>25.3282</v>
+      </c>
+      <c r="E193" t="n">
+        <v>950</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="H193" t="n">
+        <v>233</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>9.94092</v>
+      </c>
+      <c r="L193" t="n">
+        <v>11.79677</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1.103167</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.05833833</v>
+      </c>
+      <c r="O193" t="n">
+        <v>229.4586</v>
+      </c>
+      <c r="P193" t="n">
+        <v>4.612058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
